--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/17/correct_predictions_17.xlsx
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Aircraft is returning home</t>
+          <t>Advanced RTH Image Transmission Recovered</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem1/17/correct_predictions_17.xlsx
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered</t>
+          <t>Aircraft is returning home</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
